--- a/luban/MiniTemplate/Datas/item.xlsx
+++ b/luban/MiniTemplate/Datas/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20304" windowHeight="8364"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>##var</t>
   </si>
@@ -105,7 +105,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>int#ref=item.TbItem</t>
+    <t>text</t>
+  </si>
+  <si>
+    <t>int#ref=TbItem</t>
   </si>
   <si>
     <t>datetime?</t>
@@ -350,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -380,27 +383,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -414,14 +396,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,6 +435,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,6 +498,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -531,18 +534,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -555,19 +636,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,13 +660,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,102 +696,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -704,7 +707,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -755,30 +758,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -807,6 +786,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,176 +857,175 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1041,52 +1034,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1357,30 +1350,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.22222222222222" customWidth="1"/>
+    <col min="1" max="1" width="9.225" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="12.3833333333333" customWidth="1"/>
     <col min="5" max="5" width="5.5" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="13.1296296296296" customWidth="1"/>
-    <col min="9" max="9" width="12.3796296296296" customWidth="1"/>
-    <col min="10" max="10" width="17.8796296296296" customWidth="1"/>
-    <col min="11" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="5.12962962962963" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="12.3833333333333" customWidth="1"/>
+    <col min="9" max="9" width="17.8833333333333" customWidth="1"/>
+    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="5.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:35">
+    <row r="1" s="1" customFormat="1" spans="1:34">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1410,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
+      <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1439,9 +1431,8 @@
       <c r="AF1"/>
       <c r="AG1"/>
       <c r="AH1"/>
-      <c r="AI1"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:35">
+    <row r="2" s="1" customFormat="1" spans="1:34">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1458,10 +1449,10 @@
       <c r="L2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="9"/>
+      <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -1482,9 +1473,8 @@
       <c r="AF2"/>
       <c r="AG2"/>
       <c r="AH2"/>
-      <c r="AI2"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:35">
+    <row r="3" s="2" customFormat="1" spans="1:34">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1495,34 +1485,34 @@
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="J3" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="K3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="9"/>
+      <c r="M3" s="12"/>
+      <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1543,35 +1533,34 @@
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
-      <c r="AI3"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:35">
+    <row r="4" s="2" customFormat="1" spans="1:34">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
+      <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -1592,45 +1581,44 @@
       <c r="AF4"/>
       <c r="AG4"/>
       <c r="AH4"/>
-      <c r="AI4"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:35">
+    <row r="5" s="1" customFormat="1" spans="1:34">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="J5" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="10" t="s">
-        <v>36</v>
+      <c r="L5" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="9"/>
+      <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -1651,17 +1639,16 @@
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
-      <c r="AI5"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6">
         <v>10000</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -1670,24 +1657,24 @@
         <v>10001</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="14">
+        <v>43</v>
+      </c>
+      <c r="L6" s="13">
         <v>10001</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1696,10 +1683,10 @@
         <v>10001</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -1708,24 +1695,24 @@
         <v>10002</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="14">
+        <v>47</v>
+      </c>
+      <c r="L7" s="13">
         <v>10001</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="13">
         <v>3</v>
       </c>
     </row>
@@ -1734,10 +1721,10 @@
         <v>10002</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -1746,24 +1733,24 @@
         <v>10003</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="14">
+        <v>52</v>
+      </c>
+      <c r="L8" s="13">
         <v>10001</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="13">
         <v>4</v>
       </c>
     </row>
@@ -1772,10 +1759,10 @@
         <v>10003</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -1784,24 +1771,24 @@
         <v>10004</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="14">
+        <v>57</v>
+      </c>
+      <c r="L9" s="13">
         <v>10001</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="13">
         <v>5</v>
       </c>
     </row>
@@ -1810,10 +1797,10 @@
         <v>10004</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -1822,24 +1809,24 @@
         <v>10005</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="14">
+        <v>62</v>
+      </c>
+      <c r="L10" s="13">
         <v>10001</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="13">
         <v>6</v>
       </c>
     </row>
@@ -1848,10 +1835,10 @@
         <v>10005</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1860,24 +1847,24 @@
         <v>10006</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="14">
+        <v>68</v>
+      </c>
+      <c r="L11" s="13">
         <v>10001</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="13">
         <v>7</v>
       </c>
     </row>
@@ -1886,10 +1873,10 @@
         <v>10006</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -1898,24 +1885,24 @@
         <v>10007</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="14">
+        <v>73</v>
+      </c>
+      <c r="L12" s="13">
         <v>10001</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <v>8</v>
       </c>
     </row>
@@ -1924,10 +1911,10 @@
         <v>10007</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13">
         <v>200</v>
@@ -1942,18 +1929,18 @@
         <v>0</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="14">
+        <v>76</v>
+      </c>
+      <c r="L13" s="13">
         <v>10001</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="13">
         <v>9</v>
       </c>
     </row>
@@ -1962,10 +1949,10 @@
         <v>10008</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14">
         <v>300</v>
@@ -1980,18 +1967,18 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="14">
+        <v>79</v>
+      </c>
+      <c r="L14" s="13">
         <v>10001</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="13">
         <v>10</v>
       </c>
     </row>
@@ -2000,10 +1987,10 @@
         <v>10009</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -2012,24 +1999,24 @@
         <v>10000</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L15" s="14">
+        <v>85</v>
+      </c>
+      <c r="L15" s="13">
         <v>10001</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="13">
         <v>11</v>
       </c>
     </row>

--- a/luban/MiniTemplate/Datas/item.xlsx
+++ b/luban/MiniTemplate/Datas/item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
   <si>
     <t>##var</t>
   </si>
@@ -187,10 +187,13 @@
     <t>道具兑换配置</t>
   </si>
   <si>
-    <t>发型</t>
-  </si>
-  <si>
-    <t>初始发型</t>
+    <t>我的</t>
+  </si>
+  <si>
+    <t>/demo/key1</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
   <si>
     <r>
@@ -227,7 +230,7 @@
     <t>外套</t>
   </si>
   <si>
-    <t>初始外套</t>
+    <t>bbb</t>
   </si>
   <si>
     <t>10002,2</t>
@@ -239,9 +242,6 @@
     <t>上衣</t>
   </si>
   <si>
-    <t>初始上衣</t>
-  </si>
-  <si>
     <t>BLUE</t>
   </si>
   <si>
@@ -254,7 +254,7 @@
     <t>裙子</t>
   </si>
   <si>
-    <t>初始下装</t>
+    <t>key_name</t>
   </si>
   <si>
     <t>Yes</t>
@@ -269,9 +269,6 @@
     <t>袜子</t>
   </si>
   <si>
-    <t>初始袜子</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -317,6 +314,9 @@
     <t>中秋节发饰</t>
   </si>
   <si>
+    <t>中秋节礼包</t>
+  </si>
+  <si>
     <t>10008,5</t>
   </si>
   <si>
@@ -333,9 +333,6 @@
   </si>
   <si>
     <t>礼包</t>
-  </si>
-  <si>
-    <t>中秋节礼包</t>
   </si>
   <si>
     <t>null</t>
@@ -1007,19 +1004,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1350,10 +1347,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH15"/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1362,17 +1359,17 @@
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.3833333333333" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
-    <col min="8" max="8" width="12.3833333333333" customWidth="1"/>
-    <col min="9" max="9" width="17.8833333333333" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="5.13333333333333" customWidth="1"/>
+    <col min="5" max="6" width="5.5" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="12.3833333333333" customWidth="1"/>
+    <col min="10" max="10" width="17.8833333333333" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="5.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:34">
+    <row r="1" s="1" customFormat="1" spans="1:35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1382,35 +1379,35 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8"/>
-      <c r="N1"/>
+      <c r="N1" s="10"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1431,28 +1428,29 @@
       <c r="AF1"/>
       <c r="AG1"/>
       <c r="AH1"/>
+      <c r="AI1"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:34">
+    <row r="2" s="1" customFormat="1" spans="1:35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -1473,46 +1471,47 @@
       <c r="AF2"/>
       <c r="AG2"/>
       <c r="AH2"/>
+      <c r="AI2"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:34">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:35">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3"/>
+      <c r="N3" s="12"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1533,34 +1532,33 @@
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
+      <c r="AI3"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:34">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:35">
+      <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
-      <c r="N4"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -1581,8 +1579,9 @@
       <c r="AF4"/>
       <c r="AG4"/>
       <c r="AH4"/>
+      <c r="AI4"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:34">
+    <row r="5" s="1" customFormat="1" spans="1:35">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1592,33 +1591,33 @@
       <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5"/>
+      <c r="N5" s="3"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -1639,8 +1638,9 @@
       <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
+      <c r="AI5"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:14">
       <c r="B6">
         <v>10000</v>
       </c>
@@ -1650,111 +1650,120 @@
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>10001</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="b">
+      <c r="H6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="J6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="13">
         <v>10001</v>
       </c>
-      <c r="M6" s="13">
+      <c r="N6" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:14">
       <c r="B7">
         <v>10001</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7">
         <v>100</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>10002</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7">
+      <c r="H7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="13">
         <v>10001</v>
       </c>
-      <c r="M7" s="13">
+      <c r="N7" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:14">
       <c r="B8">
         <v>10002</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
         <v>100</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>10003</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8">
+      <c r="H8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="13">
+      <c r="M8" s="13">
         <v>10001</v>
       </c>
-      <c r="M8" s="13">
+      <c r="N8" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:14">
       <c r="B9">
         <v>10003</v>
       </c>
@@ -1764,35 +1773,38 @@
       <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9">
         <v>100</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>10004</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="13">
+      <c r="M9" s="13">
         <v>10001</v>
       </c>
-      <c r="M9" s="13">
+      <c r="N9" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:14">
       <c r="B10">
         <v>10004</v>
       </c>
@@ -1800,230 +1812,247 @@
         <v>58</v>
       </c>
       <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>10005</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
         <v>59</v>
       </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>10005</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="L10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="13">
+      <c r="M10" s="13">
         <v>10001</v>
       </c>
-      <c r="M10" s="13">
+      <c r="N10" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>10005</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>10006</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
         <v>64</v>
       </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>10006</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="J11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="K11" t="s">
         <v>66</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="13">
+      <c r="M11" s="13">
         <v>10001</v>
       </c>
-      <c r="M11" s="13">
+      <c r="N11" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:14">
       <c r="B12">
         <v>10006</v>
       </c>
       <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>10007</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
         <v>70</v>
       </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>10007</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="J12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="L12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="13">
+      <c r="M12" s="13">
         <v>10001</v>
       </c>
-      <c r="M12" s="13">
+      <c r="N12" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:14">
       <c r="B13">
         <v>10007</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13">
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13">
         <v>200</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>10008</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="8">
         <v>44479.9999884259</v>
       </c>
-      <c r="H13" t="b">
+      <c r="I13" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="13">
+      <c r="M13" s="13">
         <v>10001</v>
       </c>
-      <c r="M13" s="13">
+      <c r="N13" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:14">
       <c r="B14">
         <v>10008</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14">
         <v>300</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>10009</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="8">
         <v>44480.9999884259</v>
       </c>
-      <c r="H14" t="b">
+      <c r="I14" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="J14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="13">
+      <c r="M14" s="13">
         <v>10001</v>
       </c>
-      <c r="M14" s="13">
+      <c r="N14" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:14">
       <c r="B15">
         <v>10009</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>10000</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15">
-        <v>10000</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="K15" t="s">
         <v>83</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" s="13">
+      <c r="M15" s="13">
         <v>10001</v>
       </c>
-      <c r="M15" s="13">
+      <c r="N15" s="13">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L3:M3"/>
+  <mergeCells count="7">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/luban/MiniTemplate/Datas/item.xlsx
+++ b/luban/MiniTemplate/Datas/item.xlsx
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/luban/MiniTemplate/Datas/item.xlsx
+++ b/luban/MiniTemplate/Datas/item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
   <si>
     <t>##var</t>
   </si>
@@ -69,6 +69,9 @@
     <t>price</t>
   </si>
   <si>
+    <t>distance</t>
+  </si>
+  <si>
     <t>upgrade_to_item_id</t>
   </si>
   <si>
@@ -108,6 +111,9 @@
     <t>text</t>
   </si>
   <si>
+    <t>vector3</t>
+  </si>
+  <si>
     <t>int#ref=TbItem</t>
   </si>
   <si>
@@ -135,7 +141,7 @@
     <t>s</t>
   </si>
   <si>
-    <t>c,s</t>
+    <t>c,s,e</t>
   </si>
   <si>
     <t>##</t>
@@ -172,6 +178,9 @@
     <t>价格</t>
   </si>
   <si>
+    <t>距离</t>
+  </si>
+  <si>
     <t>引用当前表</t>
   </si>
   <si>
@@ -193,7 +202,7 @@
     <t>/demo/key1</t>
   </si>
   <si>
-    <t>aaa</t>
+    <t>1,1,1</t>
   </si>
   <si>
     <r>
@@ -230,7 +239,7 @@
     <t>外套</t>
   </si>
   <si>
-    <t>bbb</t>
+    <t>1,1,2</t>
   </si>
   <si>
     <t>10002,2</t>
@@ -242,6 +251,9 @@
     <t>上衣</t>
   </si>
   <si>
+    <t>1,1,3</t>
+  </si>
+  <si>
     <t>BLUE</t>
   </si>
   <si>
@@ -257,6 +269,9 @@
     <t>key_name</t>
   </si>
   <si>
+    <t>1,1,4</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -269,6 +284,9 @@
     <t>袜子</t>
   </si>
   <si>
+    <t>1,1,5</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -284,6 +302,9 @@
     <t>初始鞋子</t>
   </si>
   <si>
+    <t>1,1,6</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -302,6 +323,9 @@
     <t>初始发饰</t>
   </si>
   <si>
+    <t>1,1,7</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -317,6 +341,9 @@
     <t>中秋节礼包</t>
   </si>
   <si>
+    <t>1,1,8</t>
+  </si>
+  <si>
     <t>10008,5</t>
   </si>
   <si>
@@ -326,6 +353,9 @@
     <t>中秋节鞋子</t>
   </si>
   <si>
+    <t>1,1,9</t>
+  </si>
+  <si>
     <t>10009,6</t>
   </si>
   <si>
@@ -333,6 +363,9 @@
   </si>
   <si>
     <t>礼包</t>
+  </si>
+  <si>
+    <t>1,1,10</t>
   </si>
   <si>
     <t>null</t>
@@ -1350,7 +1383,7 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1359,14 +1392,16 @@
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.3833333333333" customWidth="1"/>
-    <col min="5" max="6" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
     <col min="7" max="7" width="18.75" customWidth="1"/>
     <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="9" width="12.3833333333333" customWidth="1"/>
-    <col min="10" max="10" width="17.8833333333333" customWidth="1"/>
-    <col min="11" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="5.13333333333333" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="17.75" customWidth="1"/>
+    <col min="12" max="12" width="27.875" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:35">
@@ -1382,30 +1417,32 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="10"/>
       <c r="O1"/>
@@ -1437,7 +1474,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1446,10 +1483,10 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2"/>
       <c r="P2"/>
@@ -1475,41 +1512,43 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:35">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6"/>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3"/>
@@ -1536,26 +1575,28 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:35">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="12"/>
@@ -1583,39 +1624,41 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:35">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5"/>
@@ -1645,34 +1688,34 @@
         <v>10000</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6">
+        <v>42</v>
+      </c>
+      <c r="E6">
         <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
       </c>
       <c r="G6">
         <v>10001</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M6" s="13">
         <v>10001</v>
@@ -1686,34 +1729,34 @@
         <v>10001</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7">
+        <v>42</v>
+      </c>
+      <c r="E7">
         <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
       </c>
       <c r="G7">
         <v>10002</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M7" s="13">
         <v>10001</v>
@@ -1727,34 +1770,34 @@
         <v>10002</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8">
+        <v>42</v>
+      </c>
+      <c r="E8">
         <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
       </c>
       <c r="G8">
         <v>10003</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M8" s="13">
         <v>10001</v>
@@ -1768,34 +1811,34 @@
         <v>10003</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9">
+        <v>58</v>
+      </c>
+      <c r="E9">
         <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
       </c>
       <c r="G9">
         <v>10004</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M9" s="13">
         <v>10001</v>
@@ -1809,34 +1852,34 @@
         <v>10004</v>
       </c>
       <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10">
+      <c r="E10">
         <v>100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
       </c>
       <c r="G10">
         <v>10005</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="M10" s="13">
         <v>10001</v>
@@ -1850,34 +1893,34 @@
         <v>10005</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11">
+        <v>69</v>
+      </c>
+      <c r="E11">
         <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
       </c>
       <c r="G11">
         <v>10006</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M11" s="13">
         <v>10001</v>
@@ -1891,34 +1934,34 @@
         <v>10006</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12">
+        <v>76</v>
+      </c>
+      <c r="E12">
         <v>100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
       </c>
       <c r="G12">
         <v>10007</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M12" s="13">
         <v>10001</v>
@@ -1932,16 +1975,16 @@
         <v>10007</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13">
+        <v>82</v>
+      </c>
+      <c r="E13">
         <v>200</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
       </c>
       <c r="G13">
         <v>10008</v>
@@ -1953,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M13" s="13">
         <v>10001</v>
@@ -1973,13 +2016,16 @@
         <v>10008</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14">
+        <v>82</v>
+      </c>
+      <c r="E14">
         <v>300</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
       </c>
       <c r="G14">
         <v>10009</v>
@@ -1991,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="M14" s="13">
         <v>10001</v>
@@ -2011,31 +2057,34 @@
         <v>10009</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15">
+        <v>82</v>
+      </c>
+      <c r="E15">
         <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
       </c>
       <c r="G15">
         <v>10000</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="M15" s="13">
         <v>10001</v>
@@ -2045,14 +2094,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D1:E1"/>
+  <mergeCells count="3">
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
